--- a/doc/Matrix.xlsx
+++ b/doc/Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="960" windowWidth="22460" windowHeight="11800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="273">
   <si>
     <t>1位</t>
   </si>
@@ -1072,6 +1072,82 @@
     <t>ロボット、ドローン撮影</t>
     <rPh sb="9" eb="11">
       <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果はすぐに自動化可能（売上&lt;-POS、入金&lt;-ネットバンク、出金 &lt;-ネットバンク、小口支払）、予定の検証は機械学習、AI（約束、請求の入金確認と消込、勤怠）、問い合わせメール文章の自動生成、メール送信申請</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウシュッキン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コグチ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>キカイガクシュウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヤクソクゴト</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1299,7 +1375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="292">
+  <cellStyleXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1591,6 +1667,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
@@ -1618,10 +1696,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1632,9 +1706,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1654,8 +1726,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="292">
+  <cellStyles count="294">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1798,6 +1876,7 @@
     <cellStyle name="ハイパーリンク" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="292" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1948,6 +2027,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="293" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2008,15 +2088,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:colOff>2311401</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38578</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>332061</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2033,8 +2113,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3149600" y="1079501"/>
-          <a:ext cx="3733800" cy="2388077"/>
+          <a:off x="3149601" y="1079501"/>
+          <a:ext cx="2859360" cy="1828799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,16 +2125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276526</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>479726</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120361</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2071,7 +2151,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7286926" y="228600"/>
+          <a:off x="6512226" y="977900"/>
           <a:ext cx="6111574" cy="3777961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6549,10 +6629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A25" sqref="A25"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -6594,7 +6672,7 @@
       <c r="D26" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="32" t="s">
         <v>220</v>
       </c>
       <c r="F26" s="17" t="s">
@@ -6615,7 +6693,7 @@
       <c r="K26" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="L26" s="33" t="s">
         <v>235</v>
       </c>
       <c r="Q26" t="s">
@@ -6635,24 +6713,24 @@
       <c r="C27" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="35" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42" t="s">
+      <c r="G27" s="37"/>
+      <c r="H27" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="41" t="s">
         <v>236</v>
       </c>
       <c r="L27" t="s">
@@ -6687,21 +6765,21 @@
       <c r="C28" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="37" t="s">
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="33" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6715,19 +6793,19 @@
       <c r="C29" t="s">
         <v>194</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="37"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
@@ -6739,19 +6817,19 @@
       <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="37" t="s">
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="33" t="s">
         <v>253</v>
       </c>
       <c r="M30" t="s">
@@ -6768,19 +6846,19 @@
       <c r="C31" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="37" t="s">
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="33" t="s">
         <v>266</v>
       </c>
       <c r="M31" t="s">
@@ -6797,25 +6875,25 @@
       <c r="C32" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="37" t="s">
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="33" t="s">
         <v>264</v>
       </c>
       <c r="M32" t="s">
@@ -6832,19 +6910,19 @@
       <c r="C33" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="37" t="s">
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="33" t="s">
         <v>262</v>
       </c>
       <c r="M33" t="s">
@@ -6861,19 +6939,19 @@
       <c r="C34" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="37" t="s">
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="33" t="s">
         <v>265</v>
       </c>
       <c r="M34" t="s">
@@ -6890,19 +6968,23 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="37"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="33" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
@@ -6914,19 +6996,19 @@
       <c r="C36" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="37"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="33"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
@@ -6938,19 +7020,19 @@
       <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="37"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
@@ -6962,19 +7044,19 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="37"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="33"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
@@ -6986,19 +7068,19 @@
       <c r="C39" t="s">
         <v>250</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="37"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
@@ -7010,19 +7092,19 @@
       <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="37"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
@@ -7034,19 +7116,19 @@
       <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="37"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="33"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
@@ -7058,19 +7140,19 @@
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="37"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
@@ -7082,25 +7164,25 @@
       <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38" t="s">
+      <c r="F43" s="34"/>
+      <c r="G43" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="H43" s="38" t="s">
+      <c r="H43" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38" t="s">
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="42" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7114,19 +7196,19 @@
       <c r="C44" t="s">
         <v>255</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38" t="s">
+      <c r="H44" s="34"/>
+      <c r="I44" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="37"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="33"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
@@ -7138,19 +7220,19 @@
       <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38" t="s">
+      <c r="H45" s="34"/>
+      <c r="I45" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="37"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="33"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
@@ -7162,19 +7244,19 @@
       <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="37"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
@@ -7186,19 +7268,19 @@
       <c r="C47" t="s">
         <v>270</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="37"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="33"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
@@ -7210,23 +7292,23 @@
       <c r="C48" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38" t="s">
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I48" s="38" t="s">
+      <c r="I48" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="37" t="s">
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="33" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7240,19 +7322,19 @@
       <c r="C49" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="37"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="33"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
@@ -7264,15 +7346,15 @@
       <c r="C50" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="37"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="33"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
@@ -7284,15 +7366,15 @@
       <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="37"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="33"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
@@ -7304,15 +7386,15 @@
       <c r="C52" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="37"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="33"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
@@ -7324,15 +7406,15 @@
       <c r="C53" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="37"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="33"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
@@ -7344,15 +7426,15 @@
       <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="37"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="33"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
@@ -7364,15 +7446,15 @@
       <c r="C55" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="37"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="33"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
@@ -7384,15 +7466,15 @@
       <c r="C56" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="37"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
@@ -7404,15 +7486,15 @@
       <c r="C57" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="37"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
@@ -7424,15 +7506,15 @@
       <c r="C58" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="37"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="33"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
@@ -7444,15 +7526,15 @@
       <c r="C59" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="37"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="33"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
@@ -7464,15 +7546,15 @@
       <c r="C60" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="37"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="33"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
@@ -7484,15 +7566,15 @@
       <c r="C61" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="37"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="33"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
@@ -7504,15 +7586,15 @@
       <c r="C62" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="37"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
@@ -7524,15 +7606,15 @@
       <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="37"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="33"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
@@ -7544,15 +7626,15 @@
       <c r="C64" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="37"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="33"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
@@ -7564,15 +7646,15 @@
       <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="37"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="33"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
@@ -7584,15 +7666,15 @@
       <c r="C66" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="37"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="33"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
@@ -7604,15 +7686,15 @@
       <c r="C67" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="37"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
@@ -7624,15 +7706,15 @@
       <c r="C68" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="37"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="33"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
@@ -7644,15 +7726,15 @@
       <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="37"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="33"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
@@ -7664,15 +7746,15 @@
       <c r="C70" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="37"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="33"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
@@ -7684,15 +7766,15 @@
       <c r="C71" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="37"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="33"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
@@ -7704,15 +7786,15 @@
       <c r="C72" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="37"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="33"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
@@ -7724,15 +7806,15 @@
       <c r="C73" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="37"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="33"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
@@ -7744,15 +7826,15 @@
       <c r="C74" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="37"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="33"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
@@ -7764,15 +7846,15 @@
       <c r="C75" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="37"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="33"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
@@ -7784,15 +7866,15 @@
       <c r="C76" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="37"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="33"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
@@ -7804,15 +7886,15 @@
       <c r="C77" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="37"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="33"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
@@ -7824,15 +7906,15 @@
       <c r="C78" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="37"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="33"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
@@ -7844,15 +7926,15 @@
       <c r="C79" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="37"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="33"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
@@ -7864,15 +7946,15 @@
       <c r="C80" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="37"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="33"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
@@ -7884,15 +7966,15 @@
       <c r="C81" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="37"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="33"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
@@ -7904,15 +7986,15 @@
       <c r="C82" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="37"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="33"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
@@ -7924,15 +8006,15 @@
       <c r="C83" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="37"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="33"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
@@ -7944,15 +8026,15 @@
       <c r="C84" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="37"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="33"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
@@ -7964,15 +8046,15 @@
       <c r="C85" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="37"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="33"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
@@ -7984,15 +8066,15 @@
       <c r="C86" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="37"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="33"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
@@ -8004,15 +8086,15 @@
       <c r="C87" t="s">
         <v>108</v>
       </c>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="37"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="33"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
@@ -8024,15 +8106,15 @@
       <c r="C88" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="37"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="33"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
@@ -8044,15 +8126,15 @@
       <c r="C89" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="37"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="33"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
@@ -8064,15 +8146,15 @@
       <c r="C90" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="37"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="33"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
@@ -8084,15 +8166,15 @@
       <c r="C91" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="37"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="33"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
@@ -8104,15 +8186,15 @@
       <c r="C92" t="s">
         <v>118</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="37"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="33"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
@@ -8124,15 +8206,15 @@
       <c r="C93" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="37"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="33"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
@@ -8144,15 +8226,15 @@
       <c r="C94" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="37"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="33"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
@@ -8164,15 +8246,15 @@
       <c r="C95" t="s">
         <v>124</v>
       </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="37"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="33"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
@@ -8184,15 +8266,15 @@
       <c r="C96" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="37"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="33"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
@@ -8204,15 +8286,15 @@
       <c r="C97" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="37"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="33"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
@@ -8224,15 +8306,15 @@
       <c r="C98" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="37"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="33"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
@@ -8244,15 +8326,15 @@
       <c r="C99" t="s">
         <v>132</v>
       </c>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="37"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="33"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
@@ -8264,15 +8346,15 @@
       <c r="C100" t="s">
         <v>134</v>
       </c>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="37"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="33"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
@@ -8284,15 +8366,15 @@
       <c r="C101" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="37"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="33"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
@@ -8304,15 +8386,15 @@
       <c r="C102" t="s">
         <v>138</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="37"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="33"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
@@ -8324,15 +8406,15 @@
       <c r="C103" t="s">
         <v>140</v>
       </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="37"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="33"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
@@ -8344,15 +8426,15 @@
       <c r="C104" t="s">
         <v>142</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
-      <c r="L104" s="37"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="33"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
@@ -8364,15 +8446,15 @@
       <c r="C105" t="s">
         <v>144</v>
       </c>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="37"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="33"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
@@ -8384,15 +8466,15 @@
       <c r="C106" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
-      <c r="L106" s="37"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="33"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
@@ -8404,15 +8486,15 @@
       <c r="C107" t="s">
         <v>148</v>
       </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="37"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="33"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
@@ -8424,15 +8506,15 @@
       <c r="C108" t="s">
         <v>150</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
-      <c r="L108" s="37"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="33"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
@@ -8444,15 +8526,15 @@
       <c r="C109" t="s">
         <v>152</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="37"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="33"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
@@ -8464,15 +8546,15 @@
       <c r="C110" t="s">
         <v>154</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="37"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="33"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
@@ -8484,15 +8566,15 @@
       <c r="C111" t="s">
         <v>156</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="37"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="33"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
@@ -8504,15 +8586,15 @@
       <c r="C112" t="s">
         <v>158</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="37"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="33"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
@@ -8524,15 +8606,15 @@
       <c r="C113" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="37"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="33"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
@@ -8544,15 +8626,15 @@
       <c r="C114" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="37"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="33"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
@@ -8564,15 +8646,15 @@
       <c r="C115" t="s">
         <v>164</v>
       </c>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="37"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="33"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
@@ -8584,15 +8666,15 @@
       <c r="C116" t="s">
         <v>166</v>
       </c>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="37"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="33"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
@@ -8604,15 +8686,15 @@
       <c r="C117" t="s">
         <v>168</v>
       </c>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="37"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="33"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
@@ -8624,15 +8706,15 @@
       <c r="C118" t="s">
         <v>170</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
-      <c r="L118" s="37"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="33"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
@@ -8644,15 +8726,15 @@
       <c r="C119" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
-      <c r="L119" s="37"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="33"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
@@ -8664,15 +8746,15 @@
       <c r="C120" t="s">
         <v>174</v>
       </c>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="37"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="33"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
@@ -8684,15 +8766,15 @@
       <c r="C121" t="s">
         <v>176</v>
       </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
-      <c r="L121" s="37"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="33"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
@@ -8704,15 +8786,15 @@
       <c r="C122" t="s">
         <v>178</v>
       </c>
-      <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="38"/>
-      <c r="K122" s="38"/>
-      <c r="L122" s="37"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="33"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
@@ -8724,15 +8806,15 @@
       <c r="C123" t="s">
         <v>180</v>
       </c>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="38"/>
-      <c r="K123" s="38"/>
-      <c r="L123" s="37"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="33"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
@@ -8744,15 +8826,15 @@
       <c r="C124" t="s">
         <v>182</v>
       </c>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="38"/>
-      <c r="L124" s="37"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="33"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
@@ -8764,15 +8846,15 @@
       <c r="C125" t="s">
         <v>184</v>
       </c>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="37"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="33"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
@@ -8784,15 +8866,15 @@
       <c r="C126" t="s">
         <v>186</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="38"/>
-      <c r="K126" s="38"/>
-      <c r="L126" s="37"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="33"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
@@ -8804,15 +8886,15 @@
       <c r="C127" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
-      <c r="L127" s="37"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+      <c r="L127" s="33"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
@@ -8824,15 +8906,15 @@
       <c r="C128" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="38"/>
-      <c r="K128" s="38"/>
-      <c r="L128" s="37"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="34"/>
+      <c r="L128" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8999,18 +9081,18 @@
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="14"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
-      <c r="L48" s="26"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="14" t="s">
         <v>232</v>
       </c>
@@ -9019,18 +9101,18 @@
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="14"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="27"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="14" t="s">
         <v>238</v>
       </c>
@@ -9045,10 +9127,10 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="28"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="26"/>
       <c r="M50" s="14" t="s">
         <v>231</v>
       </c>
@@ -9066,7 +9148,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
-      <c r="L51" s="29"/>
+      <c r="L51" s="27"/>
       <c r="M51" s="14" t="s">
         <v>230</v>
       </c>
@@ -9078,15 +9160,15 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="G52" s="24"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
-      <c r="L52" s="31"/>
+      <c r="L52" s="29"/>
       <c r="M52" s="14" t="s">
         <v>219</v>
       </c>
@@ -9098,13 +9180,13 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
-      <c r="L53" s="32"/>
+      <c r="L53" s="30"/>
       <c r="M53" s="14" t="s">
         <v>207</v>
       </c>
@@ -9122,7 +9204,7 @@
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
-      <c r="L54" s="30"/>
+      <c r="L54" s="28"/>
       <c r="M54" s="14" t="s">
         <v>229</v>
       </c>
@@ -9140,7 +9222,7 @@
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
-      <c r="L55" s="33"/>
+      <c r="L55" s="31"/>
       <c r="M55" s="14" t="s">
         <v>222</v>
       </c>
@@ -9206,10 +9288,10 @@
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="K59" s="24"/>
+      <c r="K59" s="44"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
@@ -9224,8 +9306,8 @@
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
@@ -9312,11 +9394,11 @@
       <c r="O65" s="14"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
@@ -9330,9 +9412,9 @@
       <c r="O66" s="14"/>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
@@ -9356,12 +9438,12 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="24" t="s">
+      <c r="L68" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="25"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="46"/>
     </row>
     <row r="69" spans="2:15">
       <c r="B69" s="14"/>
@@ -9374,10 +9456,10 @@
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="25"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="46"/>
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="14"/>
@@ -9390,10 +9472,10 @@
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="25"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="46"/>
     </row>
     <row r="71" spans="2:15">
       <c r="B71" s="14"/>
@@ -9561,10 +9643,10 @@
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
-      <c r="J81" s="24" t="s">
+      <c r="J81" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="K81" s="24"/>
+      <c r="K81" s="44"/>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
       <c r="N81" s="14"/>
@@ -9579,8 +9661,8 @@
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
